--- a/Data/EC/NIT-8060132741.xlsx
+++ b/Data/EC/NIT-8060132741.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F133258E-49A1-4A7F-BCEF-5AD4D901BD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64D1D7FA-E434-472D-BC76-EA8FFC1CBF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2E2012D-52F4-4343-8E2F-D5D3ACB366E1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{93F6328A-B953-4CB2-81FA-F5FF7360882C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,97 +65,118 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45513862</t>
+  </si>
+  <si>
+    <t>ALBANIS ORTIZ ACEVEDO</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>45487604</t>
+  </si>
+  <si>
+    <t>ROSA BALVINA GONZALEZ FERIA</t>
+  </si>
+  <si>
+    <t>30878368</t>
+  </si>
+  <si>
+    <t>IRMA ESTHER POLO ARELLANO</t>
+  </si>
+  <si>
+    <t>45485491</t>
+  </si>
+  <si>
+    <t>SORELY RAMIREZ IBARRA</t>
+  </si>
+  <si>
+    <t>22802828</t>
+  </si>
+  <si>
+    <t>JACKELINE GOMEZ POLO</t>
+  </si>
+  <si>
+    <t>34970490</t>
+  </si>
+  <si>
+    <t>ENITH MARINA OSORIO GONZALEZ</t>
+  </si>
+  <si>
+    <t>51700279</t>
+  </si>
+  <si>
+    <t>NILFA DEL CARMEN RIVERA VILLERO</t>
+  </si>
+  <si>
+    <t>45468999</t>
+  </si>
+  <si>
+    <t>MARIA DE LOS REYES LUNA MUENTES</t>
+  </si>
+  <si>
+    <t>33118747</t>
+  </si>
+  <si>
+    <t>ANA ESTELA DE AVILA GAMARRA</t>
+  </si>
+  <si>
+    <t>64519634</t>
+  </si>
+  <si>
+    <t>ANA ENITH RODRIGUEZ CONTRERAS</t>
+  </si>
+  <si>
+    <t>33168342</t>
+  </si>
+  <si>
+    <t>OLGA ELENA IBAÑEZ SOLAR</t>
+  </si>
+  <si>
+    <t>22785627</t>
+  </si>
+  <si>
+    <t>BALBI ISABEL ARRIETA ANAYA</t>
+  </si>
+  <si>
     <t>64541511</t>
   </si>
   <si>
     <t>LUZ MARINA NARVAEZ MERCADO</t>
   </si>
   <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>64519634</t>
-  </si>
-  <si>
-    <t>ANA ENITH RODRIGUEZ CONTRERAS</t>
-  </si>
-  <si>
-    <t>33118747</t>
-  </si>
-  <si>
-    <t>ANA ESTELA DE AVILA GAMARRA</t>
-  </si>
-  <si>
-    <t>33168342</t>
-  </si>
-  <si>
-    <t>OLGA ELENA IBAÑEZ SOLAR</t>
+    <t>23084112</t>
+  </si>
+  <si>
+    <t>GREGORIA DE LAS MERCEDES GUERRERO DE PUELLO</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>22790768</t>
+  </si>
+  <si>
+    <t>CLARISA RAMOS PAUTT</t>
   </si>
   <si>
     <t>22785865</t>
   </si>
   <si>
     <t>MARGARITA ROSA JULIO LADEN</t>
-  </si>
-  <si>
-    <t>51700279</t>
-  </si>
-  <si>
-    <t>NILFA DEL CARMEN RIVERA VILLERO</t>
-  </si>
-  <si>
-    <t>45487604</t>
-  </si>
-  <si>
-    <t>ROSA BALVINA GONZALEZ FERIA</t>
-  </si>
-  <si>
-    <t>30878368</t>
-  </si>
-  <si>
-    <t>IRMA ESTHER POLO ARELLANO</t>
-  </si>
-  <si>
-    <t>45513862</t>
-  </si>
-  <si>
-    <t>ALBANIS ORTIZ ACEVEDO</t>
-  </si>
-  <si>
-    <t>22790768</t>
-  </si>
-  <si>
-    <t>CLARISA RAMOS PAUTT</t>
-  </si>
-  <si>
-    <t>22802828</t>
-  </si>
-  <si>
-    <t>JACKELINE GOMEZ POLO</t>
-  </si>
-  <si>
-    <t>45468999</t>
-  </si>
-  <si>
-    <t>MARIA DE LOS REYES LUNA MUENTES</t>
-  </si>
-  <si>
-    <t>22785627</t>
-  </si>
-  <si>
-    <t>BALBI ISABEL ARRIETA ANAYA</t>
-  </si>
-  <si>
-    <t>45485491</t>
-  </si>
-  <si>
-    <t>SORELY RAMIREZ IBARRA</t>
-  </si>
-  <si>
-    <t>34970490</t>
-  </si>
-  <si>
-    <t>ENITH MARINA OSORIO GONZALEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -569,7 +590,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A38170D-4024-667E-CA7B-B3F4A8BEFF17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E98FBE-9ADD-8AB6-4A70-20550BC233FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,8 +941,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73812272-5A4E-4835-A48B-9104D0933F28}">
-  <dimension ref="B2:J36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C574CE-3742-4064-8720-3FB5570BA8E9}">
+  <dimension ref="B2:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -932,7 +953,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -945,7 +966,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -990,7 +1011,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1022,12 +1043,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>408334</v>
+        <v>693034</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1038,17 +1059,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C13" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F13" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1075,13 +1096,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1098,10 +1119,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G16" s="18">
-        <v>392000</v>
+        <v>828116</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1144,10 +1165,10 @@
         <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>33125</v>
+        <v>16560</v>
       </c>
       <c r="G18" s="18">
-        <v>828116</v>
+        <v>392000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1190,10 +1211,10 @@
         <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>15600</v>
+        <v>33125</v>
       </c>
       <c r="G20" s="18">
-        <v>392000</v>
+        <v>828116</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1259,7 +1280,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>16560</v>
+        <v>15600</v>
       </c>
       <c r="G23" s="18">
         <v>392000</v>
@@ -1305,10 +1326,10 @@
         <v>11</v>
       </c>
       <c r="F25" s="18">
-        <v>15600</v>
+        <v>33125</v>
       </c>
       <c r="G25" s="18">
-        <v>392000</v>
+        <v>828116</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1374,7 +1395,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="18">
-        <v>15600</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
         <v>392000</v>
@@ -1394,69 +1415,184 @@
         <v>37</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F29" s="18">
-        <v>33125</v>
+        <v>56940</v>
       </c>
       <c r="G29" s="18">
-        <v>828116</v>
+        <v>1423500</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="23" t="s">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="F30" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="24">
-        <v>33125</v>
-      </c>
-      <c r="G30" s="24">
-        <v>828116</v>
-      </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
+      <c r="F34" s="18">
+        <v>15600</v>
+      </c>
+      <c r="G34" s="18">
+        <v>392000</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="H35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="H36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="B35" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="24">
+        <v>15600</v>
+      </c>
+      <c r="G35" s="24">
+        <v>392000</v>
+      </c>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="26"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="H40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="32"/>
+      <c r="H41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H40:J40"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
